--- a/Reportes de bugs.xlsx
+++ b/Reportes de bugs.xlsx
@@ -291,7 +291,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> carácteres especiales y numéricos, en el ítem </t>
+      <t xml:space="preserve"> caracteres especiales y numéricos, en el ítem </t>
     </r>
     <r>
       <rPr>
@@ -325,7 +325,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> carácteres alfabéticos, la página devuelve un server error</t>
+      <t xml:space="preserve"> caracteres alfabéticos, la página devuelve un server error</t>
     </r>
   </si>
   <si>
